--- a/lotto/lotto_result.xlsx
+++ b/lotto/lotto_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,22 +423,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B1" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" t="n">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="D1" t="n">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E1" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="F1" t="n">
-        <v>1</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B2" t="n">
+        <v>25</v>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36</v>
+      </c>
+      <c r="E2" t="n">
+        <v>40</v>
+      </c>
+      <c r="F2" t="n">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>27</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>36</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>26</v>
+      </c>
+      <c r="B4" t="n">
+        <v>27</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" t="n">
+        <v>35</v>
+      </c>
+      <c r="F4" t="n">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>15</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36</v>
+      </c>
+      <c r="F5" t="n">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/lotto/lotto_result.xlsx
+++ b/lotto/lotto_result.xlsx
@@ -423,90 +423,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B1" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C1" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E1" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F1" t="n">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
         <v>29</v>
       </c>
-      <c r="D2" t="n">
-        <v>36</v>
-      </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
+        <v>30</v>
+      </c>
+      <c r="E3" t="n">
         <v>34</v>
       </c>
-      <c r="E3" t="n">
-        <v>36</v>
-      </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>25</v>
@@ -515,10 +515,10 @@
         <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/lotto/lotto_result.xlsx
+++ b/lotto/lotto_result.xlsx
@@ -423,90 +423,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B1" t="n">
         <v>12</v>
       </c>
-      <c r="B1" t="n">
-        <v>16</v>
-      </c>
       <c r="C1" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D1" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E1" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F1" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="E2" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F2" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="B4" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C5" t="n">
         <v>25</v>
@@ -515,10 +515,10 @@
         <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/lotto/lotto_result.xlsx
+++ b/lotto/lotto_result.xlsx
@@ -423,102 +423,102 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B1" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C1" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D1" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E1" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F1" t="n">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B2" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" t="n">
         <v>21</v>
       </c>
-      <c r="B2" t="n">
-        <v>25</v>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
       <c r="D2" t="n">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D4" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E4" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D5" t="n">
         <v>31</v>
       </c>
       <c r="E5" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/lotto/lotto_result.xlsx
+++ b/lotto/lotto_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,102 +423,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E1" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F1" t="n">
         <v>44</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>13</v>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28</v>
-      </c>
-      <c r="E2" t="n">
-        <v>37</v>
-      </c>
-      <c r="F2" t="n">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>12</v>
-      </c>
-      <c r="B3" t="n">
-        <v>22</v>
-      </c>
-      <c r="C3" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" t="n">
-        <v>33</v>
-      </c>
-      <c r="E3" t="n">
-        <v>39</v>
-      </c>
-      <c r="F3" t="n">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>8</v>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="n">
-        <v>14</v>
-      </c>
-      <c r="D4" t="n">
-        <v>33</v>
-      </c>
-      <c r="E4" t="n">
-        <v>37</v>
-      </c>
-      <c r="F4" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>16</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" t="n">
-        <v>31</v>
-      </c>
-      <c r="E5" t="n">
-        <v>38</v>
-      </c>
-      <c r="F5" t="n">
-        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/lotto/lotto_result.xlsx
+++ b/lotto/lotto_result.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,22 +423,127 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B1" t="n">
+        <v>23</v>
+      </c>
+      <c r="C1" t="n">
+        <v>26</v>
+      </c>
+      <c r="D1" t="n">
+        <v>39</v>
+      </c>
+      <c r="E1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F1" t="n">
+        <v>45</v>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>과거기록 : 517회차 4등</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B2" t="n">
+        <v>14</v>
+      </c>
+      <c r="C2" t="n">
         <v>18</v>
       </c>
-      <c r="C1" t="n">
+      <c r="D2" t="n">
+        <v>29</v>
+      </c>
+      <c r="E2" t="n">
+        <v>37</v>
+      </c>
+      <c r="F2" t="n">
+        <v>44</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>과거기록 : 896회차 4등</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>9</v>
+      </c>
+      <c r="C3" t="n">
+        <v>11</v>
+      </c>
+      <c r="D3" t="n">
         <v>25</v>
       </c>
-      <c r="D1" t="n">
-        <v>34</v>
-      </c>
-      <c r="E1" t="n">
+      <c r="E3" t="n">
+        <v>40</v>
+      </c>
+      <c r="F3" t="n">
         <v>43</v>
       </c>
-      <c r="F1" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>과거기록 : 823회차 4등</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>16</v>
+      </c>
+      <c r="B4" t="n">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n">
+        <v>43</v>
+      </c>
+      <c r="F4" t="n">
         <v>44</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>과거기록 : 580회차 4등</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>8</v>
+      </c>
+      <c r="B5" t="n">
+        <v>15</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>31</v>
+      </c>
+      <c r="E5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>과거기록 : 111회차 4등</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/lotto/lotto_result.xlsx
+++ b/lotto/lotto_result.xlsx
@@ -423,126 +423,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B1" t="n">
         <v>23</v>
       </c>
       <c r="C1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="n">
+        <v>34</v>
+      </c>
+      <c r="E1" t="n">
         <v>39</v>
       </c>
-      <c r="E1" t="n">
-        <v>42</v>
-      </c>
       <c r="F1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>과거기록 : 517회차 4등</t>
+          <t>과거기록 : [194]회차 4등</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>과거기록 : 896회차 4등</t>
+          <t>과거기록 : [246, 64]회차 4등</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
         <v>40</v>
       </c>
       <c r="F3" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>과거기록 : 823회차 4등</t>
+          <t>과거기록 : [616, 396, 183, 94]회차 4등</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E4" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F4" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>과거기록 : 580회차 4등</t>
+          <t>과거기록 : [955, 570, 530, 433]회차 4등</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
+        <v>34</v>
+      </c>
+      <c r="F5" t="n">
         <v>41</v>
-      </c>
-      <c r="F5" t="n">
-        <v>45</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>과거기록 : 111회차 4등</t>
+          <t>과거기록 : [306]회차 4등</t>
         </is>
       </c>
     </row>

--- a/lotto/lotto_result.xlsx
+++ b/lotto/lotto_result.xlsx
@@ -429,10 +429,10 @@
         <v>23</v>
       </c>
       <c r="C1" t="n">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E1" t="n">
         <v>39</v>
@@ -448,26 +448,26 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E2" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F2" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>과거기록 : [246, 64]회차 4등</t>
+          <t>과거기록 : [564]회차 4등</t>
         </is>
       </c>
     </row>
@@ -476,73 +476,73 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="n">
         <v>24</v>
       </c>
       <c r="D3" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" t="n">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>과거기록 : [616, 396, 183, 94]회차 4등</t>
+          <t>과거기록 : [349]회차 4등</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C4" t="n">
+        <v>24</v>
+      </c>
+      <c r="D4" t="n">
         <v>26</v>
       </c>
-      <c r="D4" t="n">
-        <v>27</v>
-      </c>
       <c r="E4" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="F4" t="n">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>과거기록 : [955, 570, 530, 433]회차 4등</t>
+          <t>과거기록 : [172]회차 4등</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F5" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>과거기록 : [306]회차 4등</t>
+          <t>과거기록 : [966]회차 4등</t>
         </is>
       </c>
     </row>

--- a/lotto/lotto_result.xlsx
+++ b/lotto/lotto_result.xlsx
@@ -423,126 +423,126 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B1" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D1" t="n">
+        <v>27</v>
+      </c>
+      <c r="E1" t="n">
         <v>31</v>
       </c>
-      <c r="D1" t="n">
-        <v>36</v>
-      </c>
-      <c r="E1" t="n">
-        <v>39</v>
-      </c>
       <c r="F1" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>과거기록 : [194]회차 4등</t>
+          <t>과거기록 : [316, 3]회차 4등</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22</v>
+      </c>
+      <c r="E2" t="n">
         <v>27</v>
       </c>
-      <c r="D2" t="n">
-        <v>28</v>
-      </c>
-      <c r="E2" t="n">
-        <v>34</v>
-      </c>
       <c r="F2" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>과거기록 : [564]회차 4등</t>
+          <t>과거기록 : [905, 520, 495]회차 4등</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
         <v>20</v>
       </c>
-      <c r="C3" t="n">
-        <v>24</v>
-      </c>
-      <c r="D3" t="n">
-        <v>25</v>
-      </c>
       <c r="E3" t="n">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>과거기록 : [349]회차 4등</t>
+          <t>과거기록 : [998, 565]회차 4등</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B4" t="n">
         <v>18</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
         <v>26</v>
       </c>
       <c r="E4" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F4" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>과거기록 : [172]회차 4등</t>
+          <t>과거기록 : [881, 223]회차 4등</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>과거기록 : [966]회차 4등</t>
+          <t>과거기록 : [868, 288]회차 4등</t>
         </is>
       </c>
     </row>
